--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="190">
   <si>
     <t>土地坐落</t>
   </si>
@@ -359,6 +359,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>旭能光電</t>
   </si>
   <si>
@@ -441,6 +450,9 @@
   </si>
   <si>
     <t>100，000</t>
+  </si>
+  <si>
+    <t>2011-12-20</t>
   </si>
   <si>
     <t>名</t>
@@ -1965,13 +1977,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
@@ -1990,16 +2002,25 @@
       <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2013,16 +2034,25 @@
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2036,13 +2066,22 @@
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -2059,13 +2098,22 @@
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -2077,18 +2125,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2105,13 +2162,22 @@
       <c r="G6" s="2">
         <v>367180</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2128,13 +2194,22 @@
       <c r="G7" s="2">
         <v>252780</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2151,13 +2226,22 @@
       <c r="G8" s="2">
         <v>824000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -2174,13 +2258,22 @@
       <c r="G9" s="2">
         <v>764210</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -2197,13 +2290,22 @@
       <c r="G10" s="2">
         <v>829500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2220,13 +2322,22 @@
       <c r="G11" s="2">
         <v>145360</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2243,13 +2354,22 @@
       <c r="G12" s="2">
         <v>116320</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2266,13 +2386,22 @@
       <c r="G13" s="2">
         <v>12530</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2289,13 +2418,22 @@
       <c r="G14" s="2">
         <v>1142400</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2312,13 +2450,22 @@
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -2335,13 +2482,22 @@
       <c r="G16" s="2">
         <v>2161560</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -2356,15 +2512,24 @@
         <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>140</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -2379,15 +2544,24 @@
         <v>102</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
@@ -2404,19 +2578,28 @@
       <c r="G19" s="2">
         <v>287000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2427,13 +2610,22 @@
       <c r="G20" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -2450,13 +2642,22 @@
       <c r="G21" s="2">
         <v>1590</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>53</v>
@@ -2471,15 +2672,24 @@
         <v>102</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -2496,13 +2706,22 @@
       <c r="G23" s="2">
         <v>63740</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -2519,13 +2738,22 @@
       <c r="G24" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
@@ -2537,10 +2765,19 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G25" s="2">
         <v>475000</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -2558,22 +2795,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2581,14 +2818,14 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2598,22 +2835,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2631,13 +2868,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2645,10 +2882,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2659,10 +2896,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2673,10 +2910,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -2687,10 +2924,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2701,10 +2938,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2715,10 +2952,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -2729,10 +2966,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -2743,10 +2980,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -2757,10 +2994,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -2784,19 +3021,19 @@
         <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2804,22 +3041,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2827,22 +3064,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2850,22 +3087,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2873,22 +3110,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="192">
   <si>
     <t>土地坐落</t>
   </si>
@@ -359,6 +359,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -434,7 +437,7 @@
     <t>紀〇耀</t>
   </si>
   <si>
-    <t>30，000</t>
+    <t>30000</t>
   </si>
   <si>
     <t>嘢臺幣</t>
@@ -443,13 +446,16 @@
     <t>新臺m</t>
   </si>
   <si>
-    <t>600，000</t>
-  </si>
-  <si>
-    <t>2，570，060</t>
-  </si>
-  <si>
-    <t>100，000</t>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>2570060</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-20</t>
@@ -1977,13 +1983,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
@@ -2011,16 +2017,19 @@
       <c r="J1" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2035,24 +2044,27 @@
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2">
+        <v>145</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2067,21 +2079,24 @@
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2">
+        <v>145</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -2099,21 +2114,24 @@
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2">
+        <v>145</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -2125,27 +2143,30 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2">
+        <v>145</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2163,21 +2184,24 @@
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2">
+        <v>145</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2195,21 +2219,24 @@
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2">
+        <v>145</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2227,21 +2254,24 @@
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2">
+        <v>145</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -2259,21 +2289,24 @@
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2">
+        <v>145</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -2291,21 +2324,24 @@
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="2">
+        <v>145</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2323,21 +2359,24 @@
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2">
+        <v>145</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2355,21 +2394,24 @@
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2">
+        <v>145</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2387,21 +2429,24 @@
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="2">
+        <v>145</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2419,21 +2464,24 @@
         <v>1142400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2">
+        <v>145</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2451,21 +2499,24 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2">
+        <v>145</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -2483,21 +2534,24 @@
         <v>2161560</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2">
+        <v>145</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -2512,24 +2566,27 @@
         <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="2">
+        <v>145</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -2544,24 +2601,27 @@
         <v>102</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2">
+        <v>145</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
@@ -2579,27 +2639,30 @@
         <v>287000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2">
+        <v>145</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2611,21 +2674,24 @@
         <v>300000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="2">
+        <v>145</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -2643,21 +2709,24 @@
         <v>1590</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2">
+        <v>145</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>53</v>
@@ -2672,24 +2741,27 @@
         <v>102</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="2">
+        <v>145</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -2707,21 +2779,24 @@
         <v>63740</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="2">
+        <v>145</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -2739,21 +2814,24 @@
         <v>100000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="2">
+        <v>145</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
@@ -2765,18 +2843,21 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" s="2">
         <v>475000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="2">
+        <v>145</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="2">
         <v>918</v>
       </c>
     </row>
@@ -2795,22 +2876,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2818,14 +2899,14 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2835,22 +2916,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2868,13 +2949,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2882,10 +2963,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2896,10 +2977,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2910,10 +2991,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -2924,10 +3005,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2938,10 +3019,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2952,10 +3033,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -2966,10 +3047,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -2980,10 +3061,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -2994,10 +3075,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -3021,19 +3102,19 @@
         <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3041,22 +3122,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3064,22 +3145,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3087,22 +3168,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3110,22 +3191,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="197">
   <si>
     <t>土地坐落</t>
   </si>
@@ -362,6 +362,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -371,6 +374,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>旭能光電</t>
   </si>
   <si>
@@ -458,7 +467,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-20</t>
+  </si>
+  <si>
+    <t>tmp5e8b1</t>
   </si>
   <si>
     <t>名</t>
@@ -1983,13 +1998,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
@@ -2020,16 +2035,25 @@
       <c r="K1" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2044,27 +2068,36 @@
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
+        <v>149</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2079,24 +2112,33 @@
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
+        <v>149</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -2114,24 +2156,33 @@
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
+        <v>149</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -2143,30 +2194,39 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2">
+        <v>149</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2184,24 +2244,33 @@
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2">
+        <v>149</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2219,24 +2288,33 @@
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2">
+        <v>149</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2254,24 +2332,33 @@
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2">
+        <v>149</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -2289,24 +2376,33 @@
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="2">
+        <v>149</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -2324,24 +2420,33 @@
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="2">
+        <v>149</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2359,24 +2464,33 @@
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2394,24 +2508,33 @@
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2429,24 +2552,33 @@
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="2">
+        <v>149</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2464,24 +2596,33 @@
         <v>1142400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="2">
+        <v>149</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2499,24 +2640,33 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="2">
+        <v>149</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -2534,24 +2684,33 @@
         <v>2161560</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="2">
+        <v>149</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -2566,27 +2725,36 @@
         <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="2">
+        <v>149</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -2601,27 +2769,36 @@
         <v>102</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="2">
+        <v>149</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
@@ -2639,30 +2816,39 @@
         <v>287000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="2">
+        <v>149</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N19" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2674,24 +2860,33 @@
         <v>300000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="2">
+        <v>149</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -2709,24 +2904,33 @@
         <v>1590</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2">
+        <v>149</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>53</v>
@@ -2741,27 +2945,36 @@
         <v>102</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="2">
+        <v>149</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N22" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -2779,24 +2992,33 @@
         <v>63740</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="2">
+        <v>149</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N23" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -2814,24 +3036,33 @@
         <v>100000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="2">
+        <v>149</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N24" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
@@ -2843,22 +3074,31 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G25" s="2">
         <v>475000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="2">
+        <v>149</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="2">
         <v>918</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2876,22 +3116,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2899,14 +3139,14 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2916,22 +3156,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2949,13 +3189,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2963,10 +3203,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2977,10 +3217,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2991,10 +3231,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -3005,10 +3245,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -3019,10 +3259,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -3033,10 +3273,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -3047,10 +3287,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -3061,10 +3301,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -3075,10 +3315,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -3102,19 +3342,19 @@
         <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3122,22 +3362,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3145,22 +3385,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3168,22 +3408,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3191,22 +3431,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -21,9 +21,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="197">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="197">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市大肚區井子頭段井子頭小段00100007地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段01680000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段00840000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區信安段02390005地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之1036</t>
+  </si>
+  <si>
+    <t>100000分之1518</t>
+  </si>
+  <si>
+    <t>100000分之528</t>
+  </si>
+  <si>
+    <t>100000分之1020</t>
+  </si>
+  <si>
+    <t>紀國棟</t>
+  </si>
+  <si>
+    <t>郭綺雯</t>
+  </si>
+  <si>
+    <t>74年11月18日</t>
+  </si>
+  <si>
+    <t>95年05月17日</t>
+  </si>
+  <si>
+    <t>100年10月06曰</t>
+  </si>
+  <si>
+    <t>96年09月18曰</t>
+  </si>
+  <si>
+    <t>99年06月08日</t>
+  </si>
+  <si>
+    <t>100年05甩05曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>(超禍7T年)</t>
+  </si>
+  <si>
+    <t>11000000(含房地及停車位編號85208)</t>
+  </si>
+  <si>
+    <t>23400000(含房地及停車位編號59)</t>
+  </si>
+  <si>
+    <t>6000000(含房地及停車位）</t>
+  </si>
+  <si>
+    <t>16800000(含房地及停車位編號717293155156)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-20</t>
+  </si>
+  <si>
+    <t>tmp5e8b1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,163 +170,85 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市大肚區井子頭段井子頭 小段0010-0007地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段0168-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段0084-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區信安段0239-0005 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 分 之 1036</t>
-  </si>
-  <si>
-    <t>100000 分 之 1518</t>
-  </si>
-  <si>
-    <t>100000 分 之528</t>
-  </si>
-  <si>
-    <t>100000 分 之 1020</t>
-  </si>
-  <si>
-    <t>紀國棟</t>
-  </si>
-  <si>
-    <t>郭綺雯</t>
-  </si>
-  <si>
-    <t>74年11月 18日</t>
-  </si>
-  <si>
-    <t>95年05月 17日</t>
-  </si>
-  <si>
-    <t>100 年 10 月06曰</t>
-  </si>
-  <si>
-    <t>96年09月 18曰</t>
-  </si>
-  <si>
-    <t>99年06月 08日</t>
-  </si>
-  <si>
-    <t>100 年 05 甩05曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>(超禍7T年)</t>
-  </si>
-  <si>
-    <t>11,000’000( 含房'地及停 車位編號85、 208)</t>
-  </si>
-  <si>
-    <t>23，400,000( 含房'地及停 車位編號59)</t>
-  </si>
-  <si>
-    <t>6，000，000(含 房、地及停車 位）</t>
-  </si>
-  <si>
-    <t>16,800,000( 含房'地及停 車位編號71、 72、93、155、 156)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市大肚區井子頭段井子頭 小段00463-000建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00588-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00616-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00617-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00618-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段00864-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00597-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00616-000 • 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00617-000 建號.</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00606-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區信安段04115-000 建號</t>
-  </si>
-  <si>
-    <t>3,129-</t>
-  </si>
-  <si>
-    <t>100000 分 之 1592</t>
-  </si>
-  <si>
-    <t>100000 分 之 1111</t>
-  </si>
-  <si>
-    <t>100000 分 之 1916</t>
-  </si>
-  <si>
-    <t>.100000 分 之 1986</t>
-  </si>
-  <si>
-    <t>100000 分 之 1093</t>
-  </si>
-  <si>
-    <t>100000 分 之 2265</t>
-  </si>
-  <si>
-    <t>100000 分 之 1038</t>
-  </si>
-  <si>
-    <t>100000 分 之 1627</t>
-  </si>
-  <si>
-    <t>100000 分 之414</t>
+    <t>臺中市大肚區井子頭段井子頭小段00463000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00588000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00616000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00617000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00618000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段00864000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00597000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00617000建號.</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00606000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區信安段04115000建號</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>100000分之1592</t>
+  </si>
+  <si>
+    <t>100000分之1111</t>
+  </si>
+  <si>
+    <t>100000分之1916</t>
+  </si>
+  <si>
+    <t>.100000分之1986</t>
+  </si>
+  <si>
+    <t>100000分之1093</t>
+  </si>
+  <si>
+    <t>100000分之2265</t>
+  </si>
+  <si>
+    <t>100000分之1038</t>
+  </si>
+  <si>
+    <t>100000分之1627</t>
+  </si>
+  <si>
+    <t>100000分之414</t>
   </si>
   <si>
     <t>紀國楝</t>
   </si>
   <si>
-    <t>95年05月 17曰</t>
-  </si>
-  <si>
-    <t>96年09月 18日</t>
-  </si>
-  <si>
-    <t>100 年 05 月05曰</t>
-  </si>
-  <si>
-    <t>100 年 05 月05日</t>
-  </si>
-  <si>
-    <t>100 年 10 月06日</t>
-  </si>
-  <si>
-    <t>100 年 02 月17曰</t>
+    <t>95年05月17曰</t>
+  </si>
+  <si>
+    <t>96年09月18日</t>
+  </si>
+  <si>
+    <t>100年05月05曰</t>
+  </si>
+  <si>
+    <t>100年05月05日</t>
+  </si>
+  <si>
+    <t>100年10月06日</t>
+  </si>
+  <si>
+    <t>100年02月17曰</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -212,43 +260,34 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>11,000,000( 含房、地及停 車位）</t>
-  </si>
-  <si>
-    <t>11，000,000( 共有部分，與 588建號一併 購買）</t>
-  </si>
-  <si>
-    <t>11,000,000( 共有部分,與 588建號一併 購買）</t>
-  </si>
-  <si>
-    <t>11’000,000( 共有部分:車 位編號085、 .208 與 588 建 號一併購買， 車位編號071 、072與建號 597 一併購買)'</t>
-  </si>
-  <si>
-    <t>6,000,000(含 房、地及停車 位）</t>
-  </si>
-  <si>
-    <t>俩卟5； SP 00 -'§ 薛o 渖§</t>
-  </si>
-  <si>
-    <t>16’800,000( 共有部分，與 597建號一併 購買）</t>
-  </si>
-  <si>
-    <t>16,800,000( 共有部分，與 597建號一併 購買）</t>
-  </si>
-  <si>
-    <t>16，800,000( 共有部分:停 車位編號93 ' 155、 156’弯 597 mm-k 購買,編號177 、178另以 700,000 元購 買）</t>
-  </si>
-  <si>
-    <t>姆卟S 谇硇V 一 ‘ 8 择 o 知§</t>
-  </si>
-  <si>
-    <t>23’400，000( 共有部分，與</t>
-  </si>
-  <si>
-    <t>23，400,000( 共有部分’與 606建號一併 購買）</t>
-  </si>
-  <si>
-    <t>23,400,000( 共有部分•.含 停車位編號 059,與 606 建 號一併購買）</t>
+    <t>11000000(含房地及停車位）</t>
+  </si>
+  <si>
+    <t>11000000(共有部分與588建號一併購買）</t>
+  </si>
+  <si>
+    <t>11000000(共有部分:車位編號085.208與588建號一併購買車位編號071072與建號597一併購買)</t>
+  </si>
+  <si>
+    <t>俩卟5SP00§薛o渖§</t>
+  </si>
+  <si>
+    <t>16800000(共有部分與597建號一併購買）</t>
+  </si>
+  <si>
+    <t>16800000(共有部分:停車位編號93155156弯597mmk購買編號177178另以700000元購買）</t>
+  </si>
+  <si>
+    <t>姆卟S谇硇V一‘8择o知§</t>
+  </si>
+  <si>
+    <t>23400000(共有部分與</t>
+  </si>
+  <si>
+    <t>23400000(共有部分與606建號一併購買）</t>
+  </si>
+  <si>
+    <t>23400000(共有部分.含停車位編號059與606建號一併購買）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -266,13 +305,13 @@
     <t>小客車</t>
   </si>
   <si>
-    <t>96年12月 28日</t>
-  </si>
-  <si>
-    <t>100 年 01 月11曰</t>
-  </si>
-  <si>
-    <t>99年09月 14日</t>
+    <t>96年12月28日</t>
+  </si>
+  <si>
+    <t>100年01月11曰</t>
+  </si>
+  <si>
+    <t>99年09月14日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -290,10 +329,10 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台新國際商業銀行文心分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行臺中分 行</t>
+    <t>台新國際商業銀行文心分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行臺中分行</t>
   </si>
   <si>
     <t>臺灣銀行武昌分行</t>
@@ -311,16 +350,16 @@
     <t>台中商業銀行夫肚分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行文心分 行</t>
+    <t>中國信託商業銀行文心分行</t>
   </si>
   <si>
     <t>臺灣銀行中臺中分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司士 林法院郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司臺 中法院郵局</t>
+    <t>中華郵政股份有限公司士林法院郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司臺中法院郵局</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -341,12 +380,6 @@
     <t>109:891</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -359,27 +392,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>旭能光電</t>
   </si>
   <si>
@@ -467,15 +479,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-20</t>
-  </si>
-  <si>
-    <t>tmp5e8b1</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -494,22 +497,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣8, 651,197元）</t>
+    <t>1額：新臺幣8651197元）</t>
   </si>
   <si>
     <t>價</t>
@@ -533,9 +536,6 @@
     <t>新光人燾</t>
   </si>
   <si>
-    <t>新光人壽 -</t>
-  </si>
-  <si>
     <t>國際紐約人壽</t>
   </si>
   <si>
@@ -560,7 +560,7 @@
     <t>儲蓄壽險</t>
   </si>
   <si>
-    <t>GPLB 二十年缴費終生壽險</t>
+    <t>GPLB二十年缴費終生壽險</t>
   </si>
   <si>
     <t>保誠美滿養老保險</t>
@@ -584,28 +584,28 @@
     <t>抵押貸款</t>
   </si>
   <si>
-    <t>臺中市大肚鄉農會 臺中市大肚區沙田路</t>
-  </si>
-  <si>
-    <t>中國信託銀行文心分行 臺中市文心路</t>
-  </si>
-  <si>
-    <t>國泰世華豐原分行 臺中市豐原區三民路</t>
-  </si>
-  <si>
-    <t>台新銀行文心分行 臺中市文心路</t>
-  </si>
-  <si>
-    <t>96年03月 15曰</t>
-  </si>
-  <si>
-    <t>96年09月 21曰</t>
-  </si>
-  <si>
-    <t>100年05月 06日</t>
-  </si>
-  <si>
-    <t>100年10月 12日</t>
+    <t>臺中市大肚鄉農會臺中市大肚區沙田路</t>
+  </si>
+  <si>
+    <t>中國信託銀行文心分行臺中市文心路</t>
+  </si>
+  <si>
+    <t>國泰世華豐原分行臺中市豐原區三民路</t>
+  </si>
+  <si>
+    <t>台新銀行文心分行臺中市文心路</t>
+  </si>
+  <si>
+    <t>96年03月15曰</t>
+  </si>
+  <si>
+    <t>96年09月21曰</t>
+  </si>
+  <si>
+    <t>100年05月06日</t>
+  </si>
+  <si>
+    <t>100年10月12日</t>
   </si>
   <si>
     <t>付房屋貸款</t>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,161 +998,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>918</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3249.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>918</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>3249.05</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>918</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>2033.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>918</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>78.57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>612846</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>918</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>3249.05</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>918</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1170,25 +1317,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1196,25 +1343,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>189.42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1222,25 +1369,25 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>138.19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1248,25 +1395,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>7702.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1274,25 +1421,25 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>2712.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1300,25 +1447,25 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>3129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1326,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>35.57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1352,25 +1499,25 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>136.43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1378,25 +1525,25 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>7702.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1404,25 +1551,25 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>2712.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1430,25 +1577,25 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>3129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1456,25 +1603,25 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <v>203.31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1482,25 +1629,25 @@
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2">
         <v>7702.32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1508,25 +1655,25 @@
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2">
         <v>2712.6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1534,25 +1681,25 @@
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1560,22 +1707,22 @@
         <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2">
         <v>156.99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H16" s="2">
         <v>426700</v>
@@ -1596,22 +1743,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1619,19 +1766,19 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
         <v>1781</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
@@ -1642,19 +1789,19 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2">
         <v>4799</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>1450000</v>
@@ -1665,19 +1812,19 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2">
         <v>2461</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>1200000</v>
@@ -1698,22 +1845,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1721,16 +1868,16 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1742,16 +1889,16 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1763,16 +1910,16 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1784,16 +1931,16 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1805,16 +1952,16 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1826,16 +1973,16 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>3193.05</v>
@@ -1849,16 +1996,16 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1870,20 +2017,20 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1891,20 +2038,20 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1912,16 +2059,16 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1933,16 +2080,16 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1954,16 +2101,16 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1975,16 +2122,16 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2006,43 +2153,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2050,10 +2197,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2062,28 +2209,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>918</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2">
         <v>87</v>
@@ -2094,10 +2241,10 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2106,28 +2253,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>918</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N3" s="2">
         <v>88</v>
@@ -2138,10 +2285,10 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>269000</v>
@@ -2150,28 +2297,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>918</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N4" s="2">
         <v>89</v>
@@ -2182,10 +2329,10 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>12070</v>
@@ -2194,28 +2341,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>918</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N5" s="2">
         <v>90</v>
@@ -2226,10 +2373,10 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>36718</v>
@@ -2238,28 +2385,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>918</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2">
         <v>91</v>
@@ -2270,10 +2417,10 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>25278</v>
@@ -2282,28 +2429,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>918</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N7" s="2">
         <v>92</v>
@@ -2314,10 +2461,10 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>-82400</v>
@@ -2326,28 +2473,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>918</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N8" s="2">
         <v>93</v>
@@ -2358,10 +2505,10 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>76421</v>
@@ -2370,28 +2517,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>918</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N9" s="2">
         <v>94</v>
@@ -2402,10 +2549,10 @@
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>82950</v>
@@ -2414,28 +2561,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2">
         <v>918</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N10" s="2">
         <v>95</v>
@@ -2446,10 +2593,10 @@
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>14536</v>
@@ -2458,28 +2605,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L11" s="2">
         <v>918</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N11" s="2">
         <v>96</v>
@@ -2490,10 +2637,10 @@
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>11632</v>
@@ -2502,28 +2649,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2">
         <v>918</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N12" s="2">
         <v>97</v>
@@ -2534,10 +2681,10 @@
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>1253</v>
@@ -2546,28 +2693,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L13" s="2">
         <v>918</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N13" s="2">
         <v>98</v>
@@ -2578,10 +2725,10 @@
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>114240</v>
@@ -2590,28 +2737,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G14" s="2">
         <v>1142400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L14" s="2">
         <v>918</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N14" s="2">
         <v>99</v>
@@ -2622,10 +2769,10 @@
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -2634,28 +2781,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L15" s="2">
         <v>918</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N15" s="2">
         <v>100</v>
@@ -2666,10 +2813,10 @@
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>216156</v>
@@ -2678,28 +2825,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2">
         <v>2161560</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L16" s="2">
         <v>918</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N16" s="2">
         <v>101</v>
@@ -2710,10 +2857,10 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>60000</v>
@@ -2722,28 +2869,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L17" s="2">
         <v>918</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N17" s="2">
         <v>103</v>
@@ -2754,10 +2901,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>257006</v>
@@ -2766,28 +2913,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L18" s="2">
         <v>918</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N18" s="2">
         <v>104</v>
@@ -2798,10 +2945,10 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2">
         <v>28700</v>
@@ -2810,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2">
         <v>287000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L19" s="2">
         <v>918</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N19" s="2">
         <v>105</v>
@@ -2842,40 +2989,40 @@
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2">
         <v>300000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L20" s="2">
         <v>918</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N20" s="2">
         <v>106</v>
@@ -2886,10 +3033,10 @@
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2">
         <v>159</v>
@@ -2898,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G21" s="2">
         <v>1590</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L21" s="2">
         <v>918</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N21" s="2">
         <v>107</v>
@@ -2930,10 +3077,10 @@
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2">
         <v>10000</v>
@@ -2942,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L22" s="2">
         <v>918</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N22" s="2">
         <v>108</v>
@@ -2974,10 +3121,10 @@
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>6374</v>
@@ -2986,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2">
         <v>63740</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L23" s="2">
         <v>918</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N23" s="2">
         <v>109</v>
@@ -3018,10 +3165,10 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>10000</v>
@@ -3030,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G24" s="2">
         <v>100000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L24" s="2">
         <v>918</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N24" s="2">
         <v>110</v>
@@ -3062,10 +3209,10 @@
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
         <v>47500</v>
@@ -3074,28 +3221,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="2">
         <v>475000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L25" s="2">
         <v>918</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N25" s="2">
         <v>111</v>
@@ -3116,22 +3263,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3139,14 +3286,14 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3156,22 +3303,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3189,13 +3336,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3203,13 +3350,13 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3217,13 +3364,13 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3231,13 +3378,13 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3245,13 +3392,13 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3259,13 +3406,13 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3273,13 +3420,13 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3293,7 +3440,7 @@
         <v>178</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3307,7 +3454,7 @@
         <v>179</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3321,7 +3468,7 @@
         <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>181</v>
@@ -3365,7 +3512,7 @@
         <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>187</v>
@@ -3388,7 +3535,7 @@
         <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>188</v>
@@ -3411,7 +3558,7 @@
         <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>189</v>
@@ -3434,7 +3581,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>190</v>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>23400000(共有部分.含停車位編號059與606建號一併購買）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>小客車</t>
@@ -2122,38 +2125,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1">
-        <v>1781</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>1781</v>
@@ -2162,7 +2186,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -2170,13 +2194,34 @@
       <c r="G2" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>918</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2">
         <v>4799</v>
@@ -2185,7 +2230,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -2193,13 +2238,34 @@
       <c r="G3" s="2">
         <v>1450000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>918</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2">
         <v>2461</v>
@@ -2208,13 +2274,34 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="2">
         <v>1200000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>918</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2232,13 +2319,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -2253,13 +2340,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -2274,13 +2361,13 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -2295,13 +2382,13 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -2316,13 +2403,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -2337,13 +2424,13 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -2358,13 +2445,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -2381,13 +2468,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -2402,20 +2489,20 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2423,20 +2510,20 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2444,13 +2531,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -2465,13 +2552,13 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -2486,13 +2573,13 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -2507,13 +2594,13 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2544,13 +2631,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2582,10 +2669,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2594,13 +2681,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2626,10 +2713,10 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2638,13 +2725,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2670,7 +2757,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2682,13 +2769,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2714,7 +2801,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2726,13 +2813,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2758,7 +2845,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2770,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>41</v>
@@ -2802,7 +2889,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2814,13 +2901,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -2846,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2858,13 +2945,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2890,7 +2977,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -2902,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -2934,7 +3021,7 @@
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -2946,13 +3033,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -2978,7 +3065,7 @@
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -2990,13 +3077,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3022,7 +3109,7 @@
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -3034,13 +3121,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -3066,7 +3153,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -3078,13 +3165,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
@@ -3110,7 +3197,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -3122,13 +3209,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2">
         <v>1142400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
@@ -3154,7 +3241,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -3166,13 +3253,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3198,7 +3285,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -3210,13 +3297,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2">
         <v>2161560</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>41</v>
@@ -3242,7 +3329,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -3254,13 +3341,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>41</v>
@@ -3286,7 +3373,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -3298,13 +3385,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3330,7 +3417,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>63</v>
@@ -3342,13 +3429,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2">
         <v>287000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>41</v>
@@ -3374,25 +3461,25 @@
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2">
         <v>300000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -3418,7 +3505,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -3430,13 +3517,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="2">
         <v>1590</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>41</v>
@@ -3462,7 +3549,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>63</v>
@@ -3474,13 +3561,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>41</v>
@@ -3506,7 +3593,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -3518,13 +3605,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="2">
         <v>63740</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>41</v>
@@ -3550,7 +3637,7 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -3562,13 +3649,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2">
         <v>100000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>41</v>
@@ -3594,7 +3681,7 @@
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -3606,13 +3693,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" s="2">
         <v>475000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
@@ -3648,14 +3735,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3665,16 +3752,16 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3682,22 +3769,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3715,10 +3802,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3729,10 +3816,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3743,10 +3830,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3757,10 +3844,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3771,10 +3858,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -3785,10 +3872,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3799,10 +3886,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -3813,10 +3900,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -3827,10 +3914,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3841,10 +3928,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -3865,22 +3952,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1">
         <v>1488745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3888,22 +3975,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3911,22 +3998,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3934,22 +4021,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3957,22 +4044,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -272,6 +272,9 @@
     <t>23400000(共有部分.含停車位編號059與606建號一併購買）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -285,6 +288,9 @@
   </si>
   <si>
     <t>99年09月14日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台新國際商業銀行文心分行</t>
@@ -1349,7 +1355,7 @@
         <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -1402,7 +1408,7 @@
         <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
@@ -1455,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>41</v>
@@ -1508,7 +1514,7 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>41</v>
@@ -1561,7 +1567,7 @@
         <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
@@ -1614,7 +1620,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>41</v>
@@ -1667,7 +1673,7 @@
         <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>41</v>
@@ -1720,7 +1726,7 @@
         <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>41</v>
@@ -1773,7 +1779,7 @@
         <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>41</v>
@@ -1826,7 +1832,7 @@
         <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>41</v>
@@ -1879,7 +1885,7 @@
         <v>79</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>41</v>
@@ -1932,7 +1938,7 @@
         <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>41</v>
@@ -1985,7 +1991,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>41</v>
@@ -2038,7 +2044,7 @@
         <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>41</v>
@@ -2091,7 +2097,7 @@
         <v>426700</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>41</v>
@@ -2136,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2177,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
         <v>1781</v>
@@ -2186,7 +2192,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -2195,7 +2201,7 @@
         <v>800000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2221,7 +2227,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
         <v>4799</v>
@@ -2230,7 +2236,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -2239,7 +2245,7 @@
         <v>1450000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2265,7 +2271,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>2461</v>
@@ -2274,7 +2280,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
@@ -2283,7 +2289,7 @@
         <v>1200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2319,13 +2325,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -2340,13 +2346,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -2361,13 +2367,13 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -2382,13 +2388,13 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -2403,13 +2409,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -2424,13 +2430,13 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -2445,13 +2451,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -2468,13 +2474,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -2489,20 +2495,20 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2510,20 +2516,20 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2531,13 +2537,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -2552,13 +2558,13 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -2573,13 +2579,13 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -2594,13 +2600,13 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2631,13 +2637,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2669,10 +2675,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2681,13 +2687,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2713,10 +2719,10 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2725,13 +2731,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2757,7 +2763,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2769,13 +2775,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2801,7 +2807,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2813,13 +2819,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2845,7 +2851,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2857,13 +2863,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>41</v>
@@ -2889,7 +2895,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2901,13 +2907,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -2933,7 +2939,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2945,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2977,7 +2983,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -2989,13 +2995,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -3021,7 +3027,7 @@
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -3033,13 +3039,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3065,7 +3071,7 @@
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3077,13 +3083,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3109,7 +3115,7 @@
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -3121,13 +3127,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -3153,7 +3159,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -3165,13 +3171,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
@@ -3197,7 +3203,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -3209,13 +3215,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2">
         <v>1142400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
@@ -3241,7 +3247,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -3253,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3285,7 +3291,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -3297,13 +3303,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2">
         <v>2161560</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>41</v>
@@ -3329,7 +3335,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -3341,13 +3347,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>41</v>
@@ -3373,7 +3379,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -3385,13 +3391,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3417,7 +3423,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>63</v>
@@ -3429,13 +3435,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2">
         <v>287000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>41</v>
@@ -3461,25 +3467,25 @@
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2">
         <v>300000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -3505,7 +3511,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -3517,13 +3523,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2">
         <v>1590</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>41</v>
@@ -3549,7 +3555,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>63</v>
@@ -3561,13 +3567,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>41</v>
@@ -3593,7 +3599,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -3605,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2">
         <v>63740</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>41</v>
@@ -3637,7 +3643,7 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -3649,13 +3655,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24" s="2">
         <v>100000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>41</v>
@@ -3681,7 +3687,7 @@
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -3693,13 +3699,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G25" s="2">
         <v>475000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
@@ -3735,14 +3741,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3752,16 +3758,16 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3769,22 +3775,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3802,10 +3808,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3816,10 +3822,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3830,10 +3836,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3844,10 +3850,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3858,10 +3864,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -3872,10 +3878,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3886,10 +3892,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -3900,10 +3906,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -3914,10 +3920,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3928,10 +3934,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -3952,22 +3958,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1">
         <v>1488745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3975,22 +3981,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3998,22 +4004,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4021,22 +4027,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4044,22 +4050,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="172">
   <si>
     <t>name</t>
   </si>
@@ -293,64 +293,67 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台新國際商業銀行文心分行</t>
   </si>
   <si>
+    <t>國泰世華商業銀行臺中分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行武昌分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行臺中工業區分行</t>
+  </si>
+  <si>
+    <t>臺中縣大肚鄉農會</t>
+  </si>
+  <si>
+    <t>永豐商業銀行南臺中分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行夫肚分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行文心分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行中臺中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司士林法院郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司臺中法院郵局</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>國泰世華商業銀行臺中分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行武昌分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行臺中工業區分行</t>
-  </si>
-  <si>
-    <t>臺中縣大肚鄉農會</t>
-  </si>
-  <si>
-    <t>永豐商業銀行南臺中分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行夫肚分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行文心分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行中臺中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司士林法院郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司臺中法院郵局</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>29?706</t>
-  </si>
-  <si>
-    <t>109:891</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>旭能光電</t>
@@ -2317,13 +2320,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2334,286 +2337,564 @@
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>875618</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>875618</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>918</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>26693</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>918</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>918</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>110099</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>918</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1460798</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>918</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>3193.05</v>
-      </c>
-      <c r="G7" s="2">
         <v>95822</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>918</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>157057</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>918</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>29706</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>918</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>109891</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>918</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>58007</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>918</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>833506</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>918</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>918</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>130000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>918</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2637,13 +2918,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2675,10 +2956,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2687,13 +2968,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2719,10 +3000,10 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2731,13 +3012,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2763,7 +3044,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2775,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2807,7 +3088,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2819,13 +3100,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2851,7 +3132,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2863,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>41</v>
@@ -2895,7 +3176,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2907,13 +3188,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -2939,7 +3220,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2951,13 +3232,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2983,7 +3264,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -2995,13 +3276,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -3027,7 +3308,7 @@
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -3039,13 +3320,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3071,7 +3352,7 @@
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3083,13 +3364,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3115,7 +3396,7 @@
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -3127,13 +3408,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -3159,7 +3440,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -3171,13 +3452,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
@@ -3203,7 +3484,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -3215,13 +3496,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2">
         <v>1142400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
@@ -3247,7 +3528,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -3259,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3291,7 +3572,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -3303,13 +3584,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G16" s="2">
         <v>2161560</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>41</v>
@@ -3335,7 +3616,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -3347,13 +3628,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>41</v>
@@ -3379,7 +3660,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -3391,13 +3672,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3423,7 +3704,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>63</v>
@@ -3435,13 +3716,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2">
         <v>287000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>41</v>
@@ -3467,25 +3748,25 @@
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G20" s="2">
         <v>300000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -3511,7 +3792,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -3523,13 +3804,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2">
         <v>1590</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>41</v>
@@ -3555,7 +3836,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>63</v>
@@ -3567,13 +3848,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>41</v>
@@ -3599,7 +3880,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -3611,13 +3892,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2">
         <v>63740</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>41</v>
@@ -3643,7 +3924,7 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -3655,13 +3936,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2">
         <v>100000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>41</v>
@@ -3687,7 +3968,7 @@
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -3699,13 +3980,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="2">
         <v>475000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
@@ -3741,14 +4022,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3758,16 +4039,16 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3775,22 +4056,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3808,10 +4089,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3822,10 +4103,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3836,10 +4117,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3850,10 +4131,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3864,10 +4145,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -3878,10 +4159,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3892,10 +4173,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -3906,10 +4187,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -3920,10 +4201,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3934,10 +4215,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -3958,22 +4239,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1">
         <v>1488745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3981,22 +4262,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4004,22 +4285,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4027,22 +4308,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4050,22 +4331,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -12,16 +12,15 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -441,33 +440,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣8651197元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>新光人壽</t>
@@ -4014,73 +3986,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>127</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>128</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4089,10 +3994,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -4103,10 +4008,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -4117,10 +4022,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -4131,10 +4036,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -4145,10 +4050,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -4159,10 +4064,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -4173,10 +4078,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -4187,10 +4092,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -4201,10 +4106,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -4215,10 +4120,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -4229,7 +4134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4239,22 +4144,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1">
         <v>1488745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4262,22 +4167,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4285,22 +4190,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4308,22 +4213,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4331,22 +4236,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
+++ b/legislator/property/output/normal/紀國棟_2011-12-20_財產申報表_tmp5e8b1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -442,24 +442,27 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>新光人燾</t>
+  </si>
+  <si>
+    <t>國際紐約人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
     <t>千禧金寶貝</t>
   </si>
   <si>
-    <t>新光人燾</t>
-  </si>
-  <si>
-    <t>國際紐約人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
     <t>千禧傳家寶</t>
   </si>
   <si>
@@ -478,37 +481,49 @@
     <t>保誠美滿養老保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
     <t>臺中市大肚鄉農會臺中市大肚區沙田路</t>
   </si>
   <si>
+    <t>中國信託銀行文心分行臺中市文心路</t>
+  </si>
+  <si>
+    <t>國泰世華豐原分行臺中市豐原區三民路</t>
+  </si>
+  <si>
+    <t>台新銀行文心分行臺中市文心路</t>
+  </si>
+  <si>
     <t>96年03月15曰</t>
   </si>
   <si>
+    <t>96年09月21曰</t>
+  </si>
+  <si>
+    <t>100年05月06日</t>
+  </si>
+  <si>
+    <t>100年10月12日</t>
+  </si>
+  <si>
     <t>付房屋貸款</t>
   </si>
   <si>
-    <t>中國信託銀行文心分行臺中市文心路</t>
-  </si>
-  <si>
-    <t>國泰世華豐原分行臺中市豐原區三民路</t>
-  </si>
-  <si>
-    <t>台新銀行文心分行臺中市文心路</t>
-  </si>
-  <si>
-    <t>96年09月21曰</t>
-  </si>
-  <si>
-    <t>100年05月06日</t>
-  </si>
-  <si>
-    <t>100年10月12日</t>
-  </si>
-  <si>
     <t>購置房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3986,38 +4001,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>918</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>135</v>
       </c>
@@ -4025,69 +4082,174 @@
         <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>918</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>918</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>918</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>918</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>918</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>140</v>
       </c>
@@ -4095,13 +4257,34 @@
         <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>918</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>141</v>
       </c>
@@ -4109,13 +4292,34 @@
         <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>918</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>143</v>
       </c>
@@ -4123,10 +4327,31 @@
         <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>918</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4136,122 +4361,227 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1488745</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2">
         <v>1488745</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>165</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>918</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2">
         <v>3017799</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>166</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>918</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2">
         <v>11750166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>166</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>918</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2">
         <v>15891510</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>918</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
